--- a/Triangle_2000_Bag_Report.xlsx
+++ b/Triangle_2000_Bag_Report.xlsx
@@ -586,11 +586,41 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -598,47 +628,17 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -945,10 +945,10 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="C19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J19" sqref="J19"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -971,10 +971,10 @@
       <c r="B1" s="7"/>
     </row>
     <row r="2" spans="1:11" ht="90" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="43" t="s">
         <v>13</v>
       </c>
       <c r="C2" s="4"/>
@@ -983,19 +983,19 @@
       <c r="F2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="36" t="s">
+      <c r="G2" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="34" t="s">
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="41" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="30"/>
-      <c r="B3" s="28"/>
+      <c r="A3" s="40"/>
+      <c r="B3" s="44"/>
       <c r="C3" s="5" t="s">
         <v>9</v>
       </c>
@@ -1020,20 +1020,20 @@
       <c r="J3" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="35"/>
+      <c r="K3" s="42"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="41"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="35"/>
       <c r="J4" s="18"/>
       <c r="K4" s="20" t="s">
         <v>21</v>
@@ -1046,15 +1046,15 @@
       <c r="B5" s="8">
         <v>1</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="33"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="29"/>
       <c r="J5" s="18"/>
       <c r="K5" s="20" t="s">
         <v>19</v>
@@ -1096,15 +1096,15 @@
       <c r="B7" s="8">
         <v>2</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="33"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="29"/>
       <c r="J7" s="18"/>
       <c r="K7" s="20" t="s">
         <v>21</v>
@@ -1161,15 +1161,15 @@
       <c r="B10" s="8">
         <v>3</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="33"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="29"/>
       <c r="J10" s="18"/>
       <c r="K10" s="20" t="s">
         <v>36</v>
@@ -1226,15 +1226,15 @@
       <c r="B13" s="8">
         <v>4</v>
       </c>
-      <c r="C13" s="31" t="s">
+      <c r="C13" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="33"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="29"/>
       <c r="J13" s="1"/>
     </row>
     <row r="14" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
@@ -1267,15 +1267,15 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A15" s="42"/>
-      <c r="B15" s="43"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="44"/>
+      <c r="A15" s="36"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="38"/>
       <c r="J15" s="18"/>
       <c r="K15" s="20" t="s">
         <v>43</v>
@@ -1288,15 +1288,15 @@
       <c r="B16" s="8">
         <v>5</v>
       </c>
-      <c r="C16" s="31" t="s">
+      <c r="C16" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="33"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="29"/>
       <c r="J16" s="18"/>
     </row>
     <row r="17" spans="1:11" ht="58" x14ac:dyDescent="0.35">
@@ -1335,15 +1335,15 @@
       <c r="B18" s="8">
         <v>6</v>
       </c>
-      <c r="C18" s="31" t="s">
+      <c r="C18" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="33"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="29"/>
       <c r="J18" s="18"/>
     </row>
     <row r="19" spans="1:11" ht="87" x14ac:dyDescent="0.35">
@@ -1382,15 +1382,15 @@
       <c r="B20" s="9">
         <v>7</v>
       </c>
-      <c r="C20" s="31" t="s">
+      <c r="C20" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="33"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="29"/>
       <c r="J20" s="18"/>
     </row>
     <row r="21" spans="1:11" ht="58" x14ac:dyDescent="0.35">
@@ -1445,6 +1445,7 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="K2:K3"/>
     <mergeCell ref="C13:I13"/>
     <mergeCell ref="C5:I5"/>
     <mergeCell ref="C18:I18"/>
@@ -1457,7 +1458,6 @@
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="C10:I10"/>
     <mergeCell ref="C7:I7"/>
-    <mergeCell ref="K2:K3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="K6" r:id="rId1"/>
